--- a/src/main/java/com/crm/qa/testData/FreeCRMTestData.xlsx
+++ b/src/main/java/com/crm/qa/testData/FreeCRMTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shakir/eclipse-workspace2/My_TestNG/src/main/java/com/crm/qa/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D724040-7122-2644-B7CB-2630156E55D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917C9D1D-9759-5649-8CB4-B553F62E3AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{C064C6C3-64BC-984B-BA40-F8233D62B194}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{C064C6C3-64BC-984B-BA40-F8233D62B194}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="DealsPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>FirstName</t>
   </si>
@@ -46,6 +47,33 @@
   </si>
   <si>
     <t>Murhat</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>NextStep</t>
+  </si>
+  <si>
+    <t>Maintain deals</t>
+  </si>
+  <si>
+    <t>Sale1</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>Sale2</t>
+  </si>
+  <si>
+    <t>Create new sale</t>
+  </si>
+  <si>
+    <t>close sale</t>
   </si>
 </sst>
 </file>
@@ -87,10 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AD83A1-A278-D54A-8658-F0F7DD2F9D26}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -451,4 +480,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589FE062-5BCB-934C-8831-20D63834C081}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/crm/qa/testData/FreeCRMTestData.xlsx
+++ b/src/main/java/com/crm/qa/testData/FreeCRMTestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shakir/eclipse-workspace2/My_TestNG/src/main/java/com/crm/qa/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917C9D1D-9759-5649-8CB4-B553F62E3AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193037F8-2EAE-E043-A098-9C7851FB9815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{C064C6C3-64BC-984B-BA40-F8233D62B194}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{C064C6C3-64BC-984B-BA40-F8233D62B194}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
     <sheet name="DealsPage" sheetId="2" r:id="rId2"/>
+    <sheet name="Cases" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>FirstName</t>
   </si>
@@ -74,6 +75,108 @@
   </si>
   <si>
     <t>close sale</t>
+  </si>
+  <si>
+    <t>titleofTitle</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>discrioptions</t>
+  </si>
+  <si>
+    <t>indentifiers</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>deals</t>
+  </si>
+  <si>
+    <t>Case1</t>
+  </si>
+  <si>
+    <t>Case2</t>
+  </si>
+  <si>
+    <t>Case3</t>
+  </si>
+  <si>
+    <t>Case4</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>JP Morgan</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>QA Automation</t>
+  </si>
+  <si>
+    <t>manager1</t>
+  </si>
+  <si>
+    <t>manager2</t>
+  </si>
+  <si>
+    <t>manager3</t>
+  </si>
+  <si>
+    <t>manager4</t>
+  </si>
+  <si>
+    <t>manager5</t>
+  </si>
+  <si>
+    <t>Engineer1</t>
+  </si>
+  <si>
+    <t>Engineer2</t>
+  </si>
+  <si>
+    <t>engineer3</t>
+  </si>
+  <si>
+    <t>engineer4</t>
+  </si>
+  <si>
+    <t>engineer5</t>
+  </si>
+  <si>
+    <t>401k</t>
+  </si>
+  <si>
+    <t>tagss</t>
+  </si>
+  <si>
+    <t>Job 1</t>
+  </si>
+  <si>
+    <t>Job 2</t>
+  </si>
+  <si>
+    <t>Job 3</t>
+  </si>
+  <si>
+    <t>Job 4</t>
+  </si>
+  <si>
+    <t>Job 5</t>
   </si>
 </sst>
 </file>
@@ -486,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589FE062-5BCB-934C-8831-20D63834C081}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -542,4 +645,160 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF18B93-5947-0F43-B2A5-4B8443B745FD}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>